--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.590118666666667</v>
+        <v>2.374260666666666</v>
       </c>
       <c r="H2">
-        <v>10.770356</v>
+        <v>7.122781999999999</v>
       </c>
       <c r="I2">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="J2">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N2">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O2">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P2">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q2">
-        <v>156.3829674806729</v>
+        <v>125.6423779854582</v>
       </c>
       <c r="R2">
-        <v>1407.446707326056</v>
+        <v>1130.781401869124</v>
       </c>
       <c r="S2">
-        <v>0.03894217491081488</v>
+        <v>0.02736047956565037</v>
       </c>
       <c r="T2">
-        <v>0.03894217491081488</v>
+        <v>0.02736047956565036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.590118666666667</v>
+        <v>2.374260666666666</v>
       </c>
       <c r="H3">
-        <v>10.770356</v>
+        <v>7.122781999999999</v>
       </c>
       <c r="I3">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="J3">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.616788</v>
       </c>
       <c r="O3">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P3">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q3">
-        <v>0.738114037392</v>
+        <v>0.4881384960239999</v>
       </c>
       <c r="R3">
-        <v>6.643026336528</v>
+        <v>4.393246464215999</v>
       </c>
       <c r="S3">
-        <v>0.0001838036866246282</v>
+        <v>0.0001062993518573625</v>
       </c>
       <c r="T3">
-        <v>0.0001838036866246281</v>
+        <v>0.0001062993518573624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.590118666666667</v>
+        <v>2.374260666666666</v>
       </c>
       <c r="H4">
-        <v>10.770356</v>
+        <v>7.122781999999999</v>
       </c>
       <c r="I4">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="J4">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N4">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O4">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P4">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q4">
-        <v>0.934371464424</v>
+        <v>0.6196123890204444</v>
       </c>
       <c r="R4">
-        <v>8.409343179816</v>
+        <v>5.576511501184</v>
       </c>
       <c r="S4">
-        <v>0.0002326753199882243</v>
+        <v>0.0001349297297634704</v>
       </c>
       <c r="T4">
-        <v>0.0002326753199882243</v>
+        <v>0.0001349297297634704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>230.774651</v>
       </c>
       <c r="I5">
-        <v>0.8433314202078528</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="J5">
-        <v>0.8433314202078527</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N5">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O5">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P5">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q5">
-        <v>3350.79218762097</v>
+        <v>4070.751558927987</v>
       </c>
       <c r="R5">
-        <v>30157.12968858873</v>
+        <v>36636.76403035189</v>
       </c>
       <c r="S5">
-        <v>0.8344075928617645</v>
+        <v>0.8864661480522071</v>
       </c>
       <c r="T5">
-        <v>0.8344075928617641</v>
+        <v>0.886466148052207</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>230.774651</v>
       </c>
       <c r="I6">
-        <v>0.8433314202078528</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="J6">
-        <v>0.8433314202078527</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>0.616788</v>
       </c>
       <c r="O6">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P6">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q6">
         <v>15.815448382332</v>
@@ -821,10 +821,10 @@
         <v>142.339035440988</v>
       </c>
       <c r="S6">
-        <v>0.003938331438005572</v>
+        <v>0.003444046978611591</v>
       </c>
       <c r="T6">
-        <v>0.003938331438005571</v>
+        <v>0.003444046978611591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>230.774651</v>
       </c>
       <c r="I7">
-        <v>0.8433314202078528</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="J7">
-        <v>0.8433314202078527</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N7">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O7">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P7">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q7">
-        <v>20.020624072854</v>
+        <v>20.07513817374578</v>
       </c>
       <c r="R7">
-        <v>180.185616655686</v>
+        <v>180.676243563712</v>
       </c>
       <c r="S7">
-        <v>0.004985495908082871</v>
+        <v>0.004371657211422334</v>
       </c>
       <c r="T7">
-        <v>0.004985495908082871</v>
+        <v>0.004371657211422333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.65883866666667</v>
+        <v>6.625048</v>
       </c>
       <c r="H8">
-        <v>31.976516</v>
+        <v>19.875144</v>
       </c>
       <c r="I8">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495823</v>
       </c>
       <c r="J8">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495825</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N8">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O8">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P8">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q8">
-        <v>464.2912882149129</v>
+        <v>350.5877836726453</v>
       </c>
       <c r="R8">
-        <v>4178.621593934216</v>
+        <v>3155.290053053808</v>
       </c>
       <c r="S8">
-        <v>0.1156168913182137</v>
+        <v>0.07634565697453025</v>
       </c>
       <c r="T8">
-        <v>0.1156168913182136</v>
+        <v>0.07634565697453026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.65883866666667</v>
+        <v>6.625048</v>
       </c>
       <c r="H9">
-        <v>31.976516</v>
+        <v>19.875144</v>
       </c>
       <c r="I9">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495823</v>
       </c>
       <c r="J9">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495825</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>0.616788</v>
       </c>
       <c r="O9">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P9">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q9">
-        <v>2.191414594512</v>
+        <v>1.362083368608</v>
       </c>
       <c r="R9">
-        <v>19.722731350608</v>
+        <v>12.258750317472</v>
       </c>
       <c r="S9">
-        <v>0.000545701695116801</v>
+        <v>0.0002966137283538576</v>
       </c>
       <c r="T9">
-        <v>0.0005457016951168008</v>
+        <v>0.0002966137283538576</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.65883866666667</v>
+        <v>6.625048</v>
       </c>
       <c r="H10">
-        <v>31.976516</v>
+        <v>19.875144</v>
       </c>
       <c r="I10">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495823</v>
       </c>
       <c r="J10">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495825</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N10">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O10">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P10">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q10">
-        <v>2.774090669064</v>
+        <v>1.728943193258667</v>
       </c>
       <c r="R10">
-        <v>24.966816021576</v>
+        <v>15.560488739328</v>
       </c>
       <c r="S10">
-        <v>0.0006907985300029615</v>
+        <v>0.0003765028620741249</v>
       </c>
       <c r="T10">
-        <v>0.0006907985300029613</v>
+        <v>0.0003765028620741249</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.04164300000000001</v>
+        <v>0.09441966666666667</v>
       </c>
       <c r="H11">
-        <v>0.124929</v>
+        <v>0.283259</v>
       </c>
       <c r="I11">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="J11">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.55927533333334</v>
+        <v>52.91852733333334</v>
       </c>
       <c r="N11">
-        <v>130.677826</v>
+        <v>158.755582</v>
       </c>
       <c r="O11">
-        <v>0.9894183625413969</v>
+        <v>0.9912603569328422</v>
       </c>
       <c r="P11">
-        <v>0.9894183625413967</v>
+        <v>0.9912603569328421</v>
       </c>
       <c r="Q11">
-        <v>1.813938902706</v>
+        <v>4.996549711304223</v>
       </c>
       <c r="R11">
-        <v>16.325450124354</v>
+        <v>44.968947401738</v>
       </c>
       <c r="S11">
-        <v>0.000451703450603972</v>
+        <v>0.001088072340454412</v>
       </c>
       <c r="T11">
-        <v>0.0004517034506039719</v>
+        <v>0.001088072340454412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.04164300000000001</v>
+        <v>0.09441966666666667</v>
       </c>
       <c r="H12">
-        <v>0.124929</v>
+        <v>0.283259</v>
       </c>
       <c r="I12">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="J12">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.616788</v>
       </c>
       <c r="O12">
-        <v>0.004669968820840217</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="P12">
-        <v>0.004669968820840216</v>
+        <v>0.003851187374513192</v>
       </c>
       <c r="Q12">
-        <v>0.008561634228000001</v>
+        <v>0.019412305788</v>
       </c>
       <c r="R12">
-        <v>0.077054708052</v>
+        <v>0.174710752092</v>
       </c>
       <c r="S12">
-        <v>2.132001093216248E-06</v>
+        <v>4.227315690381178E-06</v>
       </c>
       <c r="T12">
-        <v>2.132001093216248E-06</v>
+        <v>4.227315690381178E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.04164300000000001</v>
+        <v>0.09441966666666667</v>
       </c>
       <c r="H13">
-        <v>0.124929</v>
+        <v>0.283259</v>
       </c>
       <c r="I13">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="J13">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.260262</v>
+        <v>0.2609706666666667</v>
       </c>
       <c r="N13">
-        <v>0.780786</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="O13">
-        <v>0.005911668637762975</v>
+        <v>0.004888455692644593</v>
       </c>
       <c r="P13">
-        <v>0.005911668637762974</v>
+        <v>0.004888455692644592</v>
       </c>
       <c r="Q13">
-        <v>0.010838090466</v>
+        <v>0.02464076335644445</v>
       </c>
       <c r="R13">
-        <v>0.097542814194</v>
+        <v>0.221766870208</v>
       </c>
       <c r="S13">
-        <v>2.698879688917329E-06</v>
+        <v>5.365889384663304E-06</v>
       </c>
       <c r="T13">
-        <v>2.698879688917328E-06</v>
+        <v>5.365889384663303E-06</v>
       </c>
     </row>
   </sheetData>
